--- a/aboutData/ArchitectureData.xlsx
+++ b/aboutData/ArchitectureData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17160" windowHeight="9600"/>
+    <workbookView windowWidth="21780" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,11 +149,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,39 +182,61 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,55 +245,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -285,22 +271,52 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,29 +330,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -375,187 +368,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,16 +563,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,7 +590,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,7 +625,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,25 +646,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,148 +664,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -832,16 +825,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1195,7 +1188,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1339,7 +1332,9 @@
       <c r="C6" s="5">
         <v>100002</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <v>-1</v>
+      </c>
       <c r="E6" s="5">
         <v>10</v>
       </c>
@@ -1359,7 +1354,9 @@
       <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5">
+        <v>-1</v>
+      </c>
       <c r="D7" s="5">
         <v>110000</v>
       </c>
@@ -1385,7 +1382,9 @@
       <c r="C8" s="5">
         <v>100004</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="5">
+        <v>-1</v>
+      </c>
       <c r="E8" s="5">
         <v>5</v>
       </c>
@@ -1405,7 +1404,9 @@
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5">
+        <v>-1</v>
+      </c>
       <c r="D9" s="5">
         <v>110002</v>
       </c>
@@ -1431,7 +1432,9 @@
       <c r="C10" s="5">
         <v>100005</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <v>-1</v>
+      </c>
       <c r="E10" s="5">
         <v>2</v>
       </c>
@@ -1451,7 +1454,9 @@
       <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5">
+        <v>-1</v>
+      </c>
       <c r="D11" s="5">
         <v>110004</v>
       </c>
@@ -1477,7 +1482,9 @@
       <c r="C12" s="5">
         <v>100007</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5">
+        <v>-1</v>
+      </c>
       <c r="E12" s="5">
         <v>5</v>
       </c>
@@ -1497,7 +1504,9 @@
       <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6">
+        <v>-1</v>
+      </c>
       <c r="D13" s="6">
         <v>110007</v>
       </c>
@@ -1522,7 +1531,9 @@
       <c r="C14" s="6">
         <v>100000</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6">
+        <v>-1</v>
+      </c>
       <c r="E14" s="6">
         <v>20</v>
       </c>
@@ -1541,8 +1552,12 @@
       <c r="B15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>-1</v>
+      </c>
       <c r="E15" s="6">
         <v>20</v>
       </c>

--- a/aboutData/ArchitectureData.xlsx
+++ b/aboutData/ArchitectureData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21780" windowHeight="9600"/>
+    <workbookView windowWidth="19395" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>id</t>
   </si>
@@ -68,6 +68,9 @@
     <t>goldCost</t>
   </si>
   <si>
+    <t>landFeatureType</t>
+  </si>
+  <si>
     <t>actionType</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
     <t>建造花费</t>
   </si>
   <si>
+    <t>建筑类型</t>
+  </si>
+  <si>
     <t>作用类型</t>
   </si>
   <si>
@@ -111,6 +117,12 @@
   </si>
   <si>
     <t>String,Single</t>
+  </si>
+  <si>
+    <t>出生地</t>
+  </si>
+  <si>
+    <t>MidPoint</t>
   </si>
   <si>
     <t>码头</t>
@@ -148,9 +160,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -194,22 +206,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,24 +271,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,44 +305,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,6 +380,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -381,168 +555,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,46 +574,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,22 +608,51 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,10 +679,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,163 +691,160 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1185,559 +1194,461 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.875" customWidth="1"/>
-    <col min="2" max="2" width="18.875" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7"/>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7"/>
     </row>
-    <row r="2" ht="15" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" ht="15" spans="1:10">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="6"/>
     </row>
-    <row r="3" ht="15" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" ht="15" spans="1:10">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="8"/>
+      <c r="H3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="6"/>
     </row>
-    <row r="4" ht="15" spans="1:9">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="8"/>
+    <row r="4" ht="15" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="6"/>
     </row>
-    <row r="5" ht="15" spans="1:9">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="8"/>
+    <row r="5" ht="15" spans="1:10">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5">
+    <row r="6" spans="1:10">
+      <c r="A6" s="6">
         <v>110000</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5">
-        <v>100002</v>
-      </c>
-      <c r="D6" s="5">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="B6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6">
+        <v>110001</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="6">
+        <v>100003</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2</v>
+      </c>
+      <c r="H7" s="6">
+        <v>3</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="6">
+        <v>110002</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>110000</v>
+      </c>
+      <c r="E8" s="6">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>4</v>
+      </c>
+      <c r="H8" s="6">
         <v>1</v>
       </c>
-      <c r="G6" s="5">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="6">
+        <v>110003</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6">
+        <v>100004</v>
+      </c>
+      <c r="D9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
         <v>2</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="8"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="5">
-        <v>110001</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="5">
-        <v>-1</v>
-      </c>
-      <c r="D7" s="5">
-        <v>110000</v>
-      </c>
-      <c r="E7" s="5">
+    <row r="10" spans="1:10">
+      <c r="A10" s="6">
+        <v>110004</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>110002</v>
+      </c>
+      <c r="E10" s="6">
         <v>5</v>
       </c>
-      <c r="F7" s="5">
-        <v>4</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6">
         <v>1</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="8"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="5">
-        <v>110002</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5">
-        <v>100004</v>
-      </c>
-      <c r="D8" s="5">
-        <v>-1</v>
-      </c>
-      <c r="E8" s="5">
+    <row r="11" spans="1:10">
+      <c r="A11" s="6">
+        <v>110005</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="6">
+        <v>100005</v>
+      </c>
+      <c r="D11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="6">
+        <v>110006</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>110004</v>
+      </c>
+      <c r="E12" s="6">
         <v>5</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2</v>
+      </c>
+      <c r="H12" s="6">
         <v>1</v>
       </c>
-      <c r="G8" s="5">
-        <v>2</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="8"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="5">
-        <v>110003</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="5">
-        <v>-1</v>
-      </c>
-      <c r="D9" s="5">
-        <v>110002</v>
-      </c>
-      <c r="E9" s="5">
-        <v>5</v>
-      </c>
-      <c r="F9" s="5">
-        <v>2</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5">
-        <v>110004</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="5">
-        <v>100005</v>
-      </c>
-      <c r="D10" s="5">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>2</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="5">
-        <v>110005</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="5">
-        <v>-1</v>
-      </c>
-      <c r="D11" s="5">
-        <v>110004</v>
-      </c>
-      <c r="E11" s="5">
-        <v>5</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="5">
-        <v>110006</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="5">
+    <row r="13" spans="1:10">
+      <c r="A13" s="6">
+        <v>110007</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="6">
         <v>100007</v>
       </c>
-      <c r="D12" s="5">
-        <v>-1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>5</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-      <c r="G12" s="5">
-        <v>2</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="5">
-        <v>110007</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="6">
-        <v>-1</v>
-      </c>
       <c r="D13" s="6">
-        <v>110007</v>
+        <v>-1</v>
       </c>
       <c r="E13" s="6">
         <v>5</v>
       </c>
       <c r="F13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
         <v>2</v>
       </c>
-      <c r="G13" s="6">
-        <v>2</v>
-      </c>
-      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>110008</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="6">
-        <v>100000</v>
-      </c>
-      <c r="D14" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E14" s="6">
-        <v>20</v>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>110007</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
       </c>
       <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6"/>
+        <v>-1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>110009</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D15" s="6">
-        <v>-1</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E15" s="1">
         <v>20</v>
       </c>
       <c r="F15" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="1">
         <v>1</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+      <c r="A16" s="6">
+        <v>110010</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>20</v>
+      </c>
+      <c r="F16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/aboutData/ArchitectureData.xlsx
+++ b/aboutData/ArchitectureData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19395" windowHeight="9600"/>
+    <workbookView windowWidth="23355" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
@@ -59,6 +59,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>assetName</t>
+  </si>
+  <si>
     <t>terrainId</t>
   </si>
   <si>
@@ -77,9 +80,6 @@
     <t>actionEffect</t>
   </si>
   <si>
-    <t>assetName</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -92,6 +92,9 @@
     <t>建筑名字</t>
   </si>
   <si>
+    <t>资源名称</t>
+  </si>
+  <si>
     <t>地形</t>
   </si>
   <si>
@@ -110,9 +113,6 @@
     <t>作用效果</t>
   </si>
   <si>
-    <t>资源名称</t>
-  </si>
-  <si>
     <t>int,Single</t>
   </si>
   <si>
@@ -128,6 +128,9 @@
     <t>码头</t>
   </si>
   <si>
+    <t>Port</t>
+  </si>
+  <si>
     <t>集市</t>
   </si>
   <si>
@@ -140,16 +143,31 @@
     <t>伐木场</t>
   </si>
   <si>
+    <t>lumber</t>
+  </si>
+  <si>
     <t>木材厂</t>
   </si>
   <si>
+    <t>sawmill</t>
+  </si>
+  <si>
     <t>矿场</t>
   </si>
   <si>
+    <t>mining</t>
+  </si>
+  <si>
     <t>锻造厂</t>
   </si>
   <si>
+    <t>forge</t>
+  </si>
+  <si>
     <t>深海神庙</t>
+  </si>
+  <si>
+    <t>WaterTemple</t>
   </si>
   <si>
     <t>高山神庙</t>
@@ -160,9 +178,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -199,51 +217,74 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,26 +305,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,9 +328,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,40 +354,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,187 +398,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,17 +592,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,11 +616,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,7 +650,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,8 +669,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,10 +697,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,133 +709,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1197,20 +1215,19 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1252,7 +1269,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
@@ -1270,7 +1287,7 @@
         <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J2" s="6"/>
     </row>
@@ -1312,7 +1329,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>20</v>
@@ -1330,7 +1347,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="6"/>
     </row>
@@ -1353,8 +1370,8 @@
       <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6">
-        <v>-1</v>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="D6" s="6">
         <v>-1</v>
@@ -1363,16 +1380,16 @@
         <v>-1</v>
       </c>
       <c r="F6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="6">
         <v>0</v>
       </c>
-      <c r="G6" s="6">
-        <v>-1</v>
-      </c>
       <c r="H6" s="6">
         <v>-1</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>23</v>
+      <c r="I6" s="6">
+        <v>-1</v>
       </c>
       <c r="J6" s="6"/>
     </row>
@@ -1383,25 +1400,27 @@
       <c r="B7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6">
         <v>100003</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="6">
         <v>0</v>
       </c>
-      <c r="E7" s="6">
-        <v>11</v>
-      </c>
       <c r="F7" s="6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="G7" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="6">
         <v>2</v>
       </c>
-      <c r="H7" s="6">
-        <v>3</v>
-      </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="6">
+        <v>2</v>
+      </c>
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10">
@@ -1409,27 +1428,27 @@
         <v>110002</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="6">
-        <v>-1</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C8" s="6"/>
       <c r="D8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="6">
         <v>110000</v>
       </c>
-      <c r="E8" s="6">
+      <c r="F8" s="6">
         <v>5</v>
       </c>
-      <c r="F8" s="6">
-        <v>-1</v>
-      </c>
       <c r="G8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H8" s="6">
         <v>4</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <v>1</v>
       </c>
-      <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10">
@@ -1437,27 +1456,27 @@
         <v>110003</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="6">
+        <v>27</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
         <v>100004</v>
       </c>
-      <c r="D9" s="6">
-        <v>-1</v>
-      </c>
       <c r="E9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="6">
         <v>5</v>
       </c>
-      <c r="F9" s="6">
-        <v>-1</v>
-      </c>
       <c r="G9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H9" s="6">
         <v>1</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>2</v>
       </c>
-      <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10">
@@ -1465,27 +1484,27 @@
         <v>110004</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="6">
-        <v>-1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C10" s="6"/>
       <c r="D10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E10" s="6">
         <v>110002</v>
       </c>
-      <c r="E10" s="6">
+      <c r="F10" s="6">
         <v>5</v>
       </c>
-      <c r="F10" s="6">
-        <v>-1</v>
-      </c>
       <c r="G10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="6">
         <v>2</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <v>1</v>
       </c>
-      <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10">
@@ -1493,27 +1512,29 @@
         <v>110005</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="6">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6">
         <v>100005</v>
       </c>
-      <c r="D11" s="6">
-        <v>-1</v>
-      </c>
       <c r="E11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F11" s="6">
         <v>2</v>
       </c>
-      <c r="F11" s="6">
-        <v>-1</v>
-      </c>
       <c r="G11" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H11" s="6">
         <v>1</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10">
@@ -1521,27 +1542,29 @@
         <v>110006</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="6">
-        <v>-1</v>
+        <v>31</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="D12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="E12" s="6">
         <v>110004</v>
       </c>
-      <c r="E12" s="6">
+      <c r="F12" s="6">
         <v>5</v>
       </c>
-      <c r="F12" s="6">
-        <v>-1</v>
-      </c>
       <c r="G12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="6">
         <v>2</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <v>1</v>
       </c>
-      <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10">
@@ -1549,104 +1572,112 @@
         <v>110007</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="6">
+        <v>33</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="6">
         <v>100007</v>
       </c>
-      <c r="D13" s="6">
-        <v>-1</v>
-      </c>
       <c r="E13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F13" s="6">
         <v>5</v>
       </c>
-      <c r="F13" s="6">
-        <v>-1</v>
-      </c>
       <c r="G13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H13" s="6">
         <v>1</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>2</v>
       </c>
-      <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="6">
         <v>110008</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1">
-        <v>-1</v>
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E14" s="1">
         <v>110007</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <v>5</v>
       </c>
-      <c r="F14" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2</v>
+      <c r="G14" s="6">
+        <v>-1</v>
       </c>
       <c r="H14" s="1">
         <v>2</v>
       </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="6">
         <v>110009</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1">
         <v>100000</v>
       </c>
-      <c r="D15" s="1">
-        <v>-1</v>
-      </c>
       <c r="E15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="1">
         <v>20</v>
       </c>
-      <c r="F15" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
+      <c r="G15" s="6">
+        <v>-1</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
       </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" s="6">
         <v>110010</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1">
-        <v>-1</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1">
         <v>-1</v>
       </c>
       <c r="E16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F16" s="1">
         <v>20</v>
       </c>
-      <c r="F16" s="6">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="G16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <v>1</v>
       </c>
     </row>

--- a/aboutData/ArchitectureData.xlsx
+++ b/aboutData/ArchitectureData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23355" windowHeight="11550"/>
+    <workbookView windowWidth="22515" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -62,6 +62,9 @@
     <t>assetName</t>
   </si>
   <si>
+    <t>actionTypeIndex</t>
+  </si>
+  <si>
     <t>terrainId</t>
   </si>
   <si>
@@ -93,6 +96,9 @@
   </si>
   <si>
     <t>资源名称</t>
+  </si>
+  <si>
+    <t>作用Id</t>
   </si>
   <si>
     <t>地形</t>
@@ -179,9 +185,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -223,53 +229,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,6 +277,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -291,6 +291,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -298,23 +305,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,33 +328,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,187 +404,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,6 +603,30 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,30 +657,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,10 +703,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,16 +715,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,115 +733,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1212,26 +1218,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="2" max="4" width="18.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:10">
+    <row r="1" ht="15" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1259,99 +1265,111 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7"/>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7"/>
     </row>
-    <row r="2" ht="15" spans="1:10">
+    <row r="2" ht="15" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="6"/>
     </row>
-    <row r="3" ht="15" spans="1:10">
+    <row r="3" ht="15" spans="1:11">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="6"/>
     </row>
-    <row r="4" ht="15" spans="1:10">
+    <row r="4" ht="15" spans="1:11">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="6"/>
     </row>
-    <row r="5" ht="15" spans="1:10">
+    <row r="5" ht="15" spans="1:11">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1361,20 +1379,21 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="6">
         <v>110000</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" s="6">
-        <v>-1</v>
+        <v>106</v>
       </c>
       <c r="E6" s="6">
         <v>-1</v>
@@ -1383,301 +1402,311 @@
         <v>-1</v>
       </c>
       <c r="G6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="6">
         <v>0</v>
       </c>
-      <c r="H6" s="6">
-        <v>-1</v>
-      </c>
       <c r="I6" s="6">
         <v>-1</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="6">
+        <v>-1</v>
+      </c>
+      <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="6">
         <v>110001</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="6">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
         <v>100003</v>
       </c>
-      <c r="E7" s="6">
+      <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <v>10</v>
       </c>
-      <c r="G7" s="6">
-        <v>-1</v>
-      </c>
       <c r="H7" s="6">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I7" s="6">
         <v>2</v>
       </c>
-      <c r="J7" s="6"/>
+      <c r="J7" s="6">
+        <v>2</v>
+      </c>
+      <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="6">
         <v>110002</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6">
-        <v>-1</v>
-      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F8" s="6">
         <v>110000</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <v>5</v>
       </c>
-      <c r="G8" s="6">
-        <v>-1</v>
-      </c>
       <c r="H8" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="6">
         <v>4</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <v>1</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="6">
         <v>110003</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6">
         <v>100004</v>
       </c>
-      <c r="E9" s="6">
-        <v>-1</v>
-      </c>
       <c r="F9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="6">
         <v>5</v>
       </c>
-      <c r="G9" s="6">
-        <v>-1</v>
-      </c>
       <c r="H9" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="6">
         <v>1</v>
       </c>
-      <c r="I9" s="6">
+      <c r="J9" s="6">
         <v>2</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="6">
         <v>110004</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="6"/>
-      <c r="D10" s="6">
-        <v>-1</v>
-      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F10" s="6">
         <v>110002</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <v>5</v>
       </c>
-      <c r="G10" s="6">
-        <v>-1</v>
-      </c>
       <c r="H10" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="6">
         <v>2</v>
       </c>
-      <c r="I10" s="6">
+      <c r="J10" s="6">
         <v>1</v>
       </c>
-      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="6">
         <v>110005</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="6">
+        <v>32</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
         <v>100005</v>
       </c>
-      <c r="E11" s="6">
-        <v>-1</v>
-      </c>
       <c r="F11" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="6">
         <v>2</v>
       </c>
-      <c r="G11" s="6">
-        <v>-1</v>
-      </c>
       <c r="H11" s="6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I11" s="6">
         <v>1</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="6">
         <v>110006</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="6">
-        <v>-1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D12" s="6"/>
       <c r="E12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="F12" s="6">
         <v>110004</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G12" s="6">
         <v>5</v>
       </c>
-      <c r="G12" s="6">
-        <v>-1</v>
-      </c>
       <c r="H12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="6">
         <v>2</v>
       </c>
-      <c r="I12" s="6">
+      <c r="J12" s="6">
         <v>1</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="6">
         <v>110007</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="6">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
         <v>100007</v>
       </c>
-      <c r="E13" s="6">
-        <v>-1</v>
-      </c>
       <c r="F13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="6">
         <v>5</v>
       </c>
-      <c r="G13" s="6">
-        <v>-1</v>
-      </c>
       <c r="H13" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="6">
         <v>1</v>
       </c>
-      <c r="I13" s="6">
+      <c r="J13" s="6">
         <v>2</v>
       </c>
-      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" s="6">
         <v>110008</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="1">
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="E14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="1">
         <v>110007</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="1">
         <v>5</v>
       </c>
-      <c r="G14" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>2</v>
+      <c r="H14" s="6">
+        <v>-1</v>
       </c>
       <c r="I14" s="1">
         <v>2</v>
       </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" s="6">
         <v>110009</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="1">
+        <v>40</v>
+      </c>
+      <c r="E15" s="1">
         <v>100000</v>
       </c>
-      <c r="E15" s="1">
-        <v>-1</v>
-      </c>
       <c r="F15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="1">
         <v>20</v>
       </c>
-      <c r="G15" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
+      <c r="H15" s="6">
+        <v>-1</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
       </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" s="6">
         <v>110010</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="1">
-        <v>-1</v>
+        <v>41</v>
       </c>
       <c r="E16" s="1">
         <v>-1</v>
       </c>
       <c r="F16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="1">
         <v>20</v>
       </c>
-      <c r="G16" s="6">
-        <v>-1</v>
-      </c>
-      <c r="H16" s="1">
+      <c r="H16" s="6">
+        <v>-1</v>
+      </c>
+      <c r="I16" s="1">
         <v>1</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <v>1</v>
       </c>
     </row>
